--- a/01_input/list_phone_sms.xlsx
+++ b/01_input/list_phone_sms.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braul\Desktop\05_personal_projects\01_GITHUB\WhatsApp-messages-bulk-sending\01_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF0A65B-83A1-4557-A246-EDB3BA77A568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C706638A-2340-441D-8BE9-D314A81D4635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_list" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,12 +46,6 @@
     <t>¡Hola! Pedro! El siguiente mensaje es para recordarte que realices la encuesta de cuidadores</t>
   </si>
   <si>
-    <t>¡Hola Jorge! El siguiente mensaje es para recordarte que realices la encuesta de cuidadores</t>
-  </si>
-  <si>
-    <t>¡Hola Julieta! El siguiente mensaje es para recordarte que realices la encuesta de cuidadores</t>
-  </si>
-  <si>
     <t>¡Hola Antonella! El siguiente mensaje es para recordarte que realices la encuesta de cuidadores</t>
   </si>
   <si>
@@ -49,13 +55,19 @@
     <t>9XXXXXXXY</t>
   </si>
   <si>
+    <t>9XXXXXXXV</t>
+  </si>
+  <si>
+    <t>¡Hola Ronny! El siguiente mensaje es para recordarte que realices la encuesta de cuidadores</t>
+  </si>
+  <si>
+    <t>¡Hola Dianela! El siguiente mensaje es para recordarte que realices la encuesta de cuidadores</t>
+  </si>
+  <si>
     <t>9XXXXXXXZ</t>
   </si>
   <si>
     <t>9XXXXXXXW</t>
-  </si>
-  <si>
-    <t>9XXXXXXXV</t>
   </si>
 </sst>
 </file>
@@ -946,7 +958,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -954,7 +966,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -962,26 +974,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/01_input/list_phone_sms.xlsx
+++ b/01_input/list_phone_sms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braul\Desktop\05_personal_projects\01_GITHUB\WhatsApp-messages-bulk-sending\01_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braul\Desktop\02_projects\01_GITHUB\WhatsApp-messages-bulk-sending\01_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C706638A-2340-441D-8BE9-D314A81D4635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D1DAD6-91CA-4EAF-BE26-D918B8DFC76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>phone</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>9XXXXXXXX</t>
-  </si>
-  <si>
-    <t>9XXXXXXXY</t>
   </si>
   <si>
     <t>9XXXXXXXV</t>
@@ -551,8 +548,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -965,8 +965,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3" s="1">
+        <v>962607427</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -974,23 +974,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
